--- a/ipynb/AssetsTypes.xlsx
+++ b/ipynb/AssetsTypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SY3PEPF00009D49\EXCELCNV\54756f12-f6aa-4f3c-b46e-0be432c42425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0619A2C3-586E-48C8-9974-6FB4E08568E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3A435D-6299-402F-9F1F-630E98A571CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="355">
   <si>
     <t>AssetCode</t>
   </si>
@@ -44,499 +44,496 @@
     <t>AssetType</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Track Objects</t>
+  </si>
+  <si>
+    <t>Main Line</t>
+  </si>
+  <si>
+    <t>Yard Track</t>
+  </si>
+  <si>
+    <t>Loading Facility</t>
+  </si>
+  <si>
+    <t>Unloading Facility</t>
+  </si>
+  <si>
+    <t>Siding</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>Connecting Track</t>
+  </si>
+  <si>
+    <t>Crossovers</t>
+  </si>
+  <si>
+    <t>Passing Loop</t>
+  </si>
+  <si>
+    <t>Track Signage</t>
+  </si>
+  <si>
+    <t>Curves - Lrg Radius</t>
+  </si>
+  <si>
+    <t>Curves - Med Radius</t>
+  </si>
+  <si>
+    <t>Curves - Sml Radius</t>
+  </si>
+  <si>
+    <t>Tangent Track</t>
+  </si>
+  <si>
+    <t>Track Angle</t>
+  </si>
+  <si>
+    <t>Electrical Turnout</t>
+  </si>
+  <si>
+    <t>Manual Turnout</t>
+  </si>
+  <si>
+    <t>Turnout Track</t>
+  </si>
+  <si>
+    <t>Derailer Mechanism</t>
+  </si>
+  <si>
+    <t>Catchpoints</t>
+  </si>
+  <si>
+    <t>Choke Block</t>
+  </si>
+  <si>
+    <t>Corridor Objects</t>
+  </si>
+  <si>
+    <t>Access Road</t>
+  </si>
+  <si>
+    <t>Corridor Access Pt</t>
+  </si>
+  <si>
+    <t>Pads</t>
+  </si>
+  <si>
+    <t>Platforms</t>
+  </si>
+  <si>
+    <t>Lubricator</t>
+  </si>
+  <si>
+    <t>GIJ</t>
+  </si>
+  <si>
+    <t>Balise</t>
+  </si>
+  <si>
+    <t>Structure Objects</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Culverts</t>
+  </si>
+  <si>
+    <t>Retaining Walls</t>
+  </si>
+  <si>
+    <t>Structure Track</t>
+  </si>
+  <si>
+    <t>Lvl6 Structure Group</t>
+  </si>
+  <si>
+    <t>Lvl7 Structure Comp</t>
+  </si>
+  <si>
+    <t>Public LX</t>
+  </si>
+  <si>
+    <t>Private LX</t>
+  </si>
+  <si>
+    <t>Pedestrian LX</t>
+  </si>
+  <si>
+    <t>Maintenance LX</t>
+  </si>
+  <si>
+    <t>LX_CONTROLS</t>
+  </si>
+  <si>
+    <t>LX_RAIL_DETAILS</t>
+  </si>
+  <si>
+    <t>LX_ROAD_DETAILS</t>
+  </si>
+  <si>
+    <t>LX_VISIBILITY</t>
+  </si>
+  <si>
+    <t>LX_OTHER_DETAILS</t>
+  </si>
+  <si>
+    <t>Wayleave Objects</t>
+  </si>
+  <si>
+    <t>Loadout/Unloader</t>
+  </si>
+  <si>
+    <t>AC/DC Track</t>
+  </si>
+  <si>
+    <t>Axle Counter</t>
+  </si>
+  <si>
+    <t>Axle Counter Detecti</t>
+  </si>
+  <si>
+    <t>Axle Counter Evaluat</t>
+  </si>
+  <si>
+    <t>Cathodic Protection</t>
+  </si>
+  <si>
+    <t>DC Track</t>
+  </si>
+  <si>
+    <t>Electric Points</t>
+  </si>
+  <si>
+    <t>Electric Signal</t>
+  </si>
+  <si>
+    <t>Gantry/Cantilever</t>
+  </si>
+  <si>
+    <t>Hydraulic Points</t>
+  </si>
+  <si>
+    <t>Impulse Track</t>
+  </si>
+  <si>
+    <t>Interface Equipment</t>
+  </si>
+  <si>
+    <t>Jointless Track</t>
+  </si>
+  <si>
+    <t>Logical Track</t>
+  </si>
+  <si>
+    <t>Mechanical Points</t>
+  </si>
+  <si>
+    <t>Mechanical Signal</t>
+  </si>
+  <si>
+    <t>Microlok Interlockin</t>
+  </si>
+  <si>
+    <t>Pedestrian Protectio</t>
+  </si>
+  <si>
+    <t>Points Locking</t>
+  </si>
+  <si>
+    <t>Points Remote Contro</t>
+  </si>
+  <si>
+    <t>Relay Interlocking</t>
+  </si>
+  <si>
+    <t>Train Control System</t>
+  </si>
+  <si>
+    <t>VPI Interlocking</t>
+  </si>
+  <si>
+    <t>Westinghouse Telemet</t>
+  </si>
+  <si>
+    <t>Next Gen Telemetry</t>
+  </si>
+  <si>
+    <t>Westlock Interlockin</t>
+  </si>
+  <si>
+    <t>Westrace Interlockin</t>
+  </si>
+  <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>2M Digital Branch</t>
+  </si>
+  <si>
+    <t>2M VF Mux</t>
+  </si>
+  <si>
+    <t>8M Mux</t>
+  </si>
+  <si>
+    <t>ACOM Switch</t>
+  </si>
+  <si>
+    <t>Acoustic Detector Sy</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Automatic Brake Exam</t>
+  </si>
+  <si>
+    <t>Automatic Equipment</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>CER</t>
+  </si>
+  <si>
+    <t>Control Equipment</t>
+  </si>
+  <si>
+    <t>DMR</t>
+  </si>
+  <si>
+    <t>DMR LAN Equipment</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>Electronic Weighbrid</t>
+  </si>
+  <si>
+    <t>Fuel Cell Systems</t>
+  </si>
+  <si>
+    <t>Geotechnical Systems</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Locotrol Repeater</t>
+  </si>
+  <si>
+    <t>Management / Supervi</t>
+  </si>
+  <si>
+    <t>Mobile-Station Radio</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>Wireless Access Pt</t>
+  </si>
+  <si>
+    <t>Network Gateway</t>
+  </si>
+  <si>
+    <t>Network Modem</t>
+  </si>
+  <si>
+    <t>Network Router</t>
+  </si>
+  <si>
+    <t>Network Router Modul</t>
+  </si>
+  <si>
+    <t>Network Security App</t>
+  </si>
+  <si>
+    <t>Network Switch</t>
+  </si>
+  <si>
+    <t>Network Transciever</t>
+  </si>
+  <si>
+    <t>Next G Router/Modem</t>
+  </si>
+  <si>
+    <t>Appliance Server</t>
+  </si>
+  <si>
+    <t>Optical</t>
+  </si>
+  <si>
+    <t>Geofence</t>
+  </si>
+  <si>
+    <t>Cable Routes</t>
+  </si>
+  <si>
+    <t>Pantograph Monitorin</t>
+  </si>
+  <si>
+    <t>Power Supply Adaptor</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>Remote Radio Monitor</t>
+  </si>
+  <si>
+    <t>Ring Generator</t>
+  </si>
+  <si>
+    <t>RTOA</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>Shunt</t>
+  </si>
+  <si>
+    <t>Supervisory</t>
+  </si>
+  <si>
+    <t>TCR</t>
+  </si>
+  <si>
+    <t>Telemetry Power Supe</t>
+  </si>
+  <si>
+    <t>Train Speed Indicato</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Voice Recorder</t>
+  </si>
+  <si>
+    <t>Waveguide Equipment</t>
+  </si>
+  <si>
+    <t>Wayside</t>
+  </si>
+  <si>
+    <t>Weighing Servers</t>
+  </si>
+  <si>
+    <t>Wheel Impact Load De</t>
+  </si>
+  <si>
+    <t>ZRS</t>
+  </si>
+  <si>
+    <t>Antenna Sup Struct</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>IoT Sensor</t>
+  </si>
+  <si>
+    <t>SFC Cooling</t>
+  </si>
+  <si>
+    <t>LV Power Systems</t>
+  </si>
+  <si>
+    <t>Electrical Section</t>
+  </si>
+  <si>
+    <t>HV Cables</t>
+  </si>
+  <si>
+    <t>HV Protection</t>
+  </si>
+  <si>
+    <t>HV Monitoring</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Power Quality</t>
+  </si>
+  <si>
+    <t>Substation</t>
+  </si>
+  <si>
+    <t>HV Switchgear</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Isolators</t>
+  </si>
+  <si>
+    <t>Neutral Section</t>
+  </si>
+  <si>
+    <t>Section Insulator</t>
+  </si>
+  <si>
+    <t>Conductors/Wires</t>
+  </si>
+  <si>
+    <t>Insulators</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>Support/Registration</t>
+  </si>
+  <si>
+    <t>Tensioning</t>
+  </si>
+  <si>
+    <t>In Span Assembly</t>
+  </si>
+  <si>
+    <t>Earthing and Bonding</t>
+  </si>
+  <si>
+    <t>Lvl5 Feature Locatio</t>
+  </si>
+  <si>
+    <t>Lvl4 Feature Locatio</t>
+  </si>
+  <si>
+    <t>Lvl 3 Segmentation</t>
+  </si>
+  <si>
+    <t>AC-DC</t>
+  </si>
+  <si>
+    <t>AC-DC Converter</t>
+  </si>
+  <si>
+    <t>AIRCOND</t>
+  </si>
+  <si>
+    <t>Air Conditioner</t>
+  </si>
+  <si>
+    <t>AIRSUPL</t>
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>Track Objects</t>
-  </si>
-  <si>
-    <t>Main Line</t>
-  </si>
-  <si>
-    <t>Yard Track</t>
-  </si>
-  <si>
-    <t>Loading Facility</t>
-  </si>
-  <si>
-    <t>Unloading Facility</t>
-  </si>
-  <si>
-    <t>Siding</t>
-  </si>
-  <si>
-    <t>Fork</t>
-  </si>
-  <si>
-    <t>Connecting Track</t>
-  </si>
-  <si>
-    <t>Crossovers</t>
-  </si>
-  <si>
-    <t>Passing Loop</t>
-  </si>
-  <si>
-    <t>Track Signage</t>
-  </si>
-  <si>
-    <t>Curves - Lrg Radius</t>
-  </si>
-  <si>
-    <t>Curves - Med Radius</t>
-  </si>
-  <si>
-    <t>Curves - Sml Radius</t>
-  </si>
-  <si>
-    <t>Tangent Track</t>
-  </si>
-  <si>
-    <t>Track Angle</t>
-  </si>
-  <si>
-    <t>Electrical Turnout</t>
-  </si>
-  <si>
-    <t>Manual Turnout</t>
-  </si>
-  <si>
-    <t>Turnout Track</t>
-  </si>
-  <si>
-    <t>Derailer Mechanism</t>
-  </si>
-  <si>
-    <t>Catchpoints</t>
-  </si>
-  <si>
-    <t>Choke Block</t>
-  </si>
-  <si>
-    <t>Corridor Objects</t>
-  </si>
-  <si>
-    <t>Access Road</t>
-  </si>
-  <si>
-    <t>Corridor Access Pt</t>
-  </si>
-  <si>
-    <t>Pads</t>
-  </si>
-  <si>
-    <t>Platforms</t>
-  </si>
-  <si>
-    <t>Lubricator</t>
-  </si>
-  <si>
-    <t>GIJ</t>
-  </si>
-  <si>
-    <t>Balise</t>
-  </si>
-  <si>
-    <t>Structure Objects</t>
-  </si>
-  <si>
-    <t>Bridges</t>
-  </si>
-  <si>
-    <t>Culverts</t>
-  </si>
-  <si>
-    <t>Retaining Walls</t>
-  </si>
-  <si>
-    <t>Structure Track</t>
-  </si>
-  <si>
-    <t>Lvl6 Structure Group</t>
-  </si>
-  <si>
-    <t>Lvl7 Structure Comp</t>
-  </si>
-  <si>
-    <t>Public LX</t>
-  </si>
-  <si>
-    <t>Private LX</t>
-  </si>
-  <si>
-    <t>Pedestrian LX</t>
-  </si>
-  <si>
-    <t>Maintenance LX</t>
-  </si>
-  <si>
-    <t>LX_CONTROLS</t>
-  </si>
-  <si>
-    <t>LX_RAIL_DETAILS</t>
-  </si>
-  <si>
-    <t>LX_ROAD_DETAILS</t>
-  </si>
-  <si>
-    <t>LX_VISIBILITY</t>
-  </si>
-  <si>
-    <t>LX_OTHER_DETAILS</t>
-  </si>
-  <si>
-    <t>Wayleave Objects</t>
-  </si>
-  <si>
-    <t>Loadout/Unloader</t>
-  </si>
-  <si>
-    <t>AC/DC Track</t>
-  </si>
-  <si>
-    <t>Axle Counter</t>
-  </si>
-  <si>
-    <t>Axle Counter Detecti</t>
-  </si>
-  <si>
-    <t>Axle Counter Evaluat</t>
-  </si>
-  <si>
-    <t>Cathodic Protection</t>
-  </si>
-  <si>
-    <t>DC Track</t>
-  </si>
-  <si>
-    <t>Electric Points</t>
-  </si>
-  <si>
-    <t>Electric Signal</t>
-  </si>
-  <si>
-    <t>Gantry/Cantilever</t>
-  </si>
-  <si>
-    <t>Hydraulic Points</t>
-  </si>
-  <si>
-    <t>Impulse Track</t>
-  </si>
-  <si>
-    <t>Interface Equipment</t>
-  </si>
-  <si>
-    <t>Jointless Track</t>
-  </si>
-  <si>
-    <t>Logical Track</t>
-  </si>
-  <si>
-    <t>Mechanical Points</t>
-  </si>
-  <si>
-    <t>Mechanical Signal</t>
-  </si>
-  <si>
-    <t>Microlok Interlockin</t>
-  </si>
-  <si>
-    <t>Pedestrian Protectio</t>
-  </si>
-  <si>
-    <t>Points Locking</t>
-  </si>
-  <si>
-    <t>Points Remote Contro</t>
-  </si>
-  <si>
-    <t>Relay Interlocking</t>
-  </si>
-  <si>
-    <t>Train Control System</t>
-  </si>
-  <si>
-    <t>VPI Interlocking</t>
-  </si>
-  <si>
-    <t>Westinghouse Telemet</t>
-  </si>
-  <si>
-    <t>Next Gen Telemetry</t>
-  </si>
-  <si>
-    <t>Westlock Interlockin</t>
-  </si>
-  <si>
-    <t>Westrace Interlockin</t>
-  </si>
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>2M Digital Branch</t>
-  </si>
-  <si>
-    <t>2M VF Mux</t>
-  </si>
-  <si>
-    <t>8M Mux</t>
-  </si>
-  <si>
-    <t>ACOM Switch</t>
-  </si>
-  <si>
-    <t>Acoustic Detector Sy</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>Automatic Brake Exam</t>
-  </si>
-  <si>
-    <t>Automatic Equipment</t>
-  </si>
-  <si>
-    <t>Cables</t>
-  </si>
-  <si>
-    <t>CCTV</t>
-  </si>
-  <si>
-    <t>CER</t>
-  </si>
-  <si>
-    <t>Control Equipment</t>
-  </si>
-  <si>
-    <t>DMR</t>
-  </si>
-  <si>
-    <t>DMR LAN Equipment</t>
-  </si>
-  <si>
-    <t>ECO</t>
-  </si>
-  <si>
-    <t>Electronic Weighbrid</t>
-  </si>
-  <si>
-    <t>Fuel Cell Systems</t>
-  </si>
-  <si>
-    <t>Geotechnical Systems</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Locotrol Repeater</t>
-  </si>
-  <si>
-    <t>Management / Supervi</t>
-  </si>
-  <si>
-    <t>Mobile-Station Radio</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>Wireless Access Pt</t>
-  </si>
-  <si>
-    <t>Network Gateway</t>
-  </si>
-  <si>
-    <t>Network Modem</t>
-  </si>
-  <si>
-    <t>Network Router</t>
-  </si>
-  <si>
-    <t>Network Router Modul</t>
-  </si>
-  <si>
-    <t>Network Security App</t>
-  </si>
-  <si>
-    <t>Network Switch</t>
-  </si>
-  <si>
-    <t>Network Transciever</t>
-  </si>
-  <si>
-    <t>Next G Router/Modem</t>
-  </si>
-  <si>
-    <t>Appliance Server</t>
-  </si>
-  <si>
-    <t>Optical</t>
-  </si>
-  <si>
-    <t>Geofence</t>
-  </si>
-  <si>
-    <t>Cable Routes</t>
-  </si>
-  <si>
-    <t>Pantograph Monitorin</t>
-  </si>
-  <si>
-    <t>Power Supply Adaptor</t>
-  </si>
-  <si>
-    <t>RDC</t>
-  </si>
-  <si>
-    <t>Remote Radio Monitor</t>
-  </si>
-  <si>
-    <t>Ring Generator</t>
-  </si>
-  <si>
-    <t>RTOA</t>
-  </si>
-  <si>
-    <t>SDH</t>
-  </si>
-  <si>
-    <t>Shunt</t>
-  </si>
-  <si>
-    <t>Supervisory</t>
-  </si>
-  <si>
-    <t>TCR</t>
-  </si>
-  <si>
-    <t>Telemetry Power Supe</t>
-  </si>
-  <si>
-    <t>Train Speed Indicato</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>Voice Recorder</t>
-  </si>
-  <si>
-    <t>Waveguide Equipment</t>
-  </si>
-  <si>
-    <t>Wayside</t>
-  </si>
-  <si>
-    <t>Weighing Servers</t>
-  </si>
-  <si>
-    <t>Wheel Impact Load De</t>
-  </si>
-  <si>
-    <t>ZRS</t>
-  </si>
-  <si>
-    <t>Antenna Sup Struct</t>
-  </si>
-  <si>
-    <t>Antenna</t>
-  </si>
-  <si>
-    <t>IoT Sensor</t>
-  </si>
-  <si>
-    <t>SFC Cooling</t>
-  </si>
-  <si>
-    <t>LV Power Systems</t>
-  </si>
-  <si>
-    <t>Electrical Section</t>
-  </si>
-  <si>
-    <t>HV Cables</t>
-  </si>
-  <si>
-    <t>HV Protection</t>
-  </si>
-  <si>
-    <t>HV Monitoring</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Power Quality</t>
-  </si>
-  <si>
-    <t>Substation</t>
-  </si>
-  <si>
-    <t>HV Switchgear</t>
-  </si>
-  <si>
-    <t>Transformer</t>
-  </si>
-  <si>
-    <t>Isolators</t>
-  </si>
-  <si>
-    <t>Neutral Section</t>
-  </si>
-  <si>
-    <t>Section Insulator</t>
-  </si>
-  <si>
-    <t>Conductors/Wires</t>
-  </si>
-  <si>
-    <t>Insulators</t>
-  </si>
-  <si>
-    <t>Structures</t>
-  </si>
-  <si>
-    <t>Support/Registration</t>
-  </si>
-  <si>
-    <t>Tensioning</t>
-  </si>
-  <si>
-    <t>In Span Assembly</t>
-  </si>
-  <si>
-    <t>Earthing and Bonding</t>
-  </si>
-  <si>
-    <t>Lvl5 Feature Locatio</t>
-  </si>
-  <si>
-    <t>Lvl4 Feature Locatio</t>
-  </si>
-  <si>
-    <t>Lvl 3 Segmentation</t>
-  </si>
-  <si>
-    <t>AC-DC</t>
-  </si>
-  <si>
-    <t>AC-DC Converter</t>
-  </si>
-  <si>
-    <t>AIRCOND</t>
-  </si>
-  <si>
-    <t>Air Conditioner</t>
-  </si>
-  <si>
-    <t>AIRSUPL</t>
   </si>
   <si>
     <t>ALTCON</t>
@@ -1944,13 +1941,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1961,1280 +1962,1280 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10009</v>
+        <v>10012</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>10012</v>
+        <v>11006</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>11006</v>
+        <v>11010</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>11010</v>
+        <v>11020</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>11020</v>
+        <v>11030</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>11030</v>
+        <v>11040</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>11040</v>
+        <v>11050</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>11050</v>
+        <v>12000</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>12000</v>
+        <v>12010</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>12010</v>
+        <v>12100</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>12100</v>
+        <v>13000</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>13000</v>
+        <v>13010</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>13010</v>
+        <v>13020</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>13020</v>
+        <v>14500</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>15500</v>
+        <v>17010</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>17010</v>
+        <v>17030</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>17030</v>
+        <v>18000</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>19000</v>
+        <v>19020</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>19020</v>
+        <v>20000</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>20000</v>
+        <v>20010</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>20010</v>
+        <v>20020</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>20020</v>
+        <v>20030</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>20030</v>
+        <v>20050</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>20050</v>
+        <v>20060</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>20060</v>
+        <v>20070</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>20070</v>
+        <v>30000</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>30000</v>
+        <v>30010</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>30010</v>
+        <v>30020</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>30020</v>
+        <v>30030</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>30030</v>
+        <v>30040</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>30040</v>
+        <v>30050</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>30050</v>
+        <v>30060</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>30060</v>
+        <v>30080</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>30080</v>
+        <v>30095</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>30095</v>
+        <v>40000</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>40000</v>
+        <v>40040</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>40040</v>
+        <v>50010</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>50010</v>
+        <v>50020</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>50020</v>
+        <v>50030</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>50030</v>
+        <v>50040</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>50040</v>
+        <v>50050</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>50050</v>
+        <v>50060</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>50060</v>
+        <v>50070</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>50070</v>
+        <v>50080</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>50080</v>
+        <v>50090</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>50090</v>
+        <v>50100</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>50100</v>
+        <v>50110</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>50110</v>
+        <v>50120</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>50120</v>
+        <v>50130</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>50130</v>
+        <v>50140</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>50140</v>
+        <v>50150</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>50150</v>
+        <v>50170</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>50170</v>
+        <v>50180</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>50180</v>
+        <v>50190</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>50190</v>
+        <v>50200</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>50200</v>
+        <v>50210</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>50210</v>
+        <v>50220</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>50220</v>
+        <v>50230</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>50230</v>
+        <v>50240</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>50240</v>
+        <v>50250</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>50250</v>
+        <v>50255</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>50255</v>
+        <v>50260</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>50260</v>
+        <v>50270</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>50270</v>
+        <v>50280</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>50280</v>
+        <v>60010</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>60010</v>
+        <v>60020</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>60020</v>
+        <v>60030</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>60030</v>
+        <v>60040</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>60040</v>
+        <v>60050</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>60050</v>
+        <v>60060</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>60060</v>
+        <v>60080</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>60080</v>
+        <v>60090</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>60090</v>
+        <v>60100</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>60100</v>
+        <v>60130</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>60130</v>
+        <v>60140</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>60140</v>
+        <v>60150</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>60150</v>
+        <v>60160</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>60160</v>
+        <v>60170</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>60170</v>
+        <v>60180</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>60180</v>
+        <v>60190</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>60190</v>
+        <v>60210</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>60210</v>
+        <v>60230</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>60230</v>
+        <v>60250</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>60250</v>
+        <v>60260</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>60260</v>
+        <v>60270</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>60270</v>
+        <v>60290</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>60290</v>
+        <v>60300</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>60300</v>
+        <v>60330</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>60330</v>
+        <v>60335</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>60335</v>
+        <v>60340</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>60340</v>
+        <v>60350</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>60350</v>
+        <v>60360</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>60360</v>
+        <v>60370</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>60370</v>
+        <v>60380</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>60380</v>
+        <v>60390</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>60390</v>
+        <v>60400</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>60400</v>
+        <v>60410</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>60410</v>
+        <v>60415</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>60415</v>
+        <v>60420</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>60420</v>
+        <v>60425</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>60425</v>
+        <v>60440</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>60440</v>
+        <v>60450</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>60450</v>
+        <v>60470</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>60470</v>
+        <v>60480</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>60480</v>
+        <v>60490</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>60490</v>
+        <v>60500</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>60500</v>
+        <v>60510</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>60510</v>
+        <v>60520</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>60520</v>
+        <v>60530</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>60530</v>
+        <v>60550</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>60550</v>
+        <v>60560</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>60560</v>
+        <v>60570</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>60570</v>
+        <v>60580</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>60580</v>
+        <v>60600</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>60600</v>
+        <v>60610</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>60610</v>
+        <v>60620</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>60620</v>
+        <v>60630</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>60630</v>
+        <v>60640</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>60640</v>
+        <v>60650</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>60650</v>
+        <v>60660</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>60660</v>
+        <v>60670</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>60670</v>
+        <v>60675</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>60675</v>
+        <v>60680</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>60680</v>
+        <v>70010</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>70010</v>
+        <v>70020</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>70020</v>
+        <v>70030</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>70030</v>
+        <v>70040</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>70040</v>
+        <v>70050</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>70050</v>
+        <v>70060</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>70060</v>
+        <v>70070</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>70070</v>
+        <v>70080</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>70080</v>
+        <v>70090</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>70090</v>
+        <v>70100</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>70100</v>
+        <v>70110</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>70110</v>
+        <v>70120</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>70120</v>
+        <v>70130</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>70130</v>
+        <v>70140</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>70140</v>
+        <v>70150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>70150</v>
+        <v>70160</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>70160</v>
+        <v>70170</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>70170</v>
+        <v>70180</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>70180</v>
+        <v>70190</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>70190</v>
+        <v>70200</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>70200</v>
+        <v>70210</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>70210</v>
+        <v>999997</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>999997</v>
+        <v>999998</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>999998</v>
+        <v>999999</v>
       </c>
       <c r="B160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
-        <v>999999</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
@@ -3261,12 +3262,12 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
         <v>168</v>
@@ -3277,751 +3278,743 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B178" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B180" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B183" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B187" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B189" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B195" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B197" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B198" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B201" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B202" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B203" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B204" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B205" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B206" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B208" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B209" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B210" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B211" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B212" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B213" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B214" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B215" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B217" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B218" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B219" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B220" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B221" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B222" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B223" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B224" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B225" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B226" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B227" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B228" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B229" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B230" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B231" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B233" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B234" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B235" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B236" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B237" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B238" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B239" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B240" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B241" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B242" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B243" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B244" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B245" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B249" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B250" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B251" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B252" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B253" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B254" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B255" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B257" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B258" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
         <v>354</v>
-      </c>
-      <c r="B259" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4042,15 +4035,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEA7580CECA31448AA34CEA307B7CB26" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a9aa57834a2341bcd2688411ee756e92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a642ba0-d346-40a4-8e23-1b9ea4f5fa23" xmlns:ns3="1a452eed-2fcd-4907-8b3a-56787238e0e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5fae4cde46d93a3c470c5492148dc93" ns2:_="" ns3:_="">
     <xsd:import namespace="8a642ba0-d346-40a4-8e23-1b9ea4f5fa23"/>
@@ -4311,14 +4295,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782F205F-032A-4854-8C06-838F80D4E0E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD818712-192D-4C99-B093-4B4DFF4E8AD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C045C35C-2102-4F52-BE10-C1A680729F14}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C045C35C-2102-4F52-BE10-C1A680729F14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD818712-192D-4C99-B093-4B4DFF4E8AD8}"/>
 </file>